--- a/test excel.xlsx
+++ b/test excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcadiso365-my.sharepoint.com/personal/andrew_lego_arcadis_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcadiso365-my.sharepoint.com/personal/andrew_lego_arcadis_com/Documents/Documents/Arcadis/Git Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F669ED62-468A-4CBE-9117-BC0A3C2B8D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F669ED62-468A-4CBE-9117-BC0A3C2B8D3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D9ACF855-351E-419C-BB20-ED93143D34D7}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="345" windowWidth="15375" windowHeight="7875" xr2:uid="{9D16E8B1-D065-4519-99CF-B501EE661FF7}"/>
+    <workbookView xWindow="210" yWindow="1635" windowWidth="19365" windowHeight="7875" xr2:uid="{9D16E8B1-D065-4519-99CF-B501EE661FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test 2 for git</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EE40E2-95D3-41ED-BBFC-8612268F6D02}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
